--- a/files/timetable/timetable_2022.4_2.xlsx
+++ b/files/timetable/timetable_2022.4_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teacher\Desktop\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C88A76A-6303-4BA5-AF14-D350A0B0C247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF0DDBF-95B2-4D7C-8EC7-7C6EC79C161F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes_Summary (22)" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5761" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5768" uniqueCount="456">
   <si>
     <t xml:space="preserve">
 КЕЛІСІЛДІ:
@@ -1028,10 +1028,6 @@
     <t>132, 423</t>
   </si>
   <si>
-    <t>Дене шынықтыру 
-ҚО</t>
-  </si>
-  <si>
     <t>132, 408А</t>
   </si>
   <si>
@@ -1072,9 +1068,6 @@
   </si>
   <si>
     <t>517, 318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ҚО </t>
   </si>
   <si>
     <t>517,518</t>
@@ -1177,10 +1170,6 @@
     <t>519,507</t>
   </si>
   <si>
-    <t xml:space="preserve">Дене шынықтыру 
-ҚО </t>
-  </si>
-  <si>
     <t>133, 132</t>
   </si>
   <si>
@@ -1404,6 +1393,9 @@
   </si>
   <si>
     <t>423А, 501</t>
+  </si>
+  <si>
+    <t>Дене шынықтыру</t>
   </si>
 </sst>
 </file>
@@ -4570,142 +4562,142 @@
     <xf numFmtId="49" fontId="5" fillId="108" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="79" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="133" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="87" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="99" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="97" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="152" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="144" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="90" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="153" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="94" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="114" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="119" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="101" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="110" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="149" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="135" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="136" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="97" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="140" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="102" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="146" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="84" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="148" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="104" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="118" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="130" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="154" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="154" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="149" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="82" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="132" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="132" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="92" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="151" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="141" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="137" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="121" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="127" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="106" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="122" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="153" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="79" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="100" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="134" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="86" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="79" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="133" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="87" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="99" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="97" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="152" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="144" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="90" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="153" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="94" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="114" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="119" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="101" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="110" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="149" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="135" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="136" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="97" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="140" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="102" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="146" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="84" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="148" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="104" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="118" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="130" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="154" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="154" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="149" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="82" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="132" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="132" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="92" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="151" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="141" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="137" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="121" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="127" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="106" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="122" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="153" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="79" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="100" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="134" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="86" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5011,65 +5003,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L72" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="W107" sqref="W107"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" customWidth="1"/>
-    <col min="13" max="14" width="20.85546875" customWidth="1"/>
-    <col min="15" max="15" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="22.109375" customWidth="1"/>
+    <col min="10" max="10" width="19.5546875" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" customWidth="1"/>
+    <col min="12" max="12" width="20.109375" customWidth="1"/>
+    <col min="13" max="14" width="20.88671875" customWidth="1"/>
+    <col min="15" max="15" width="21.109375" customWidth="1"/>
     <col min="16" max="16" width="20" customWidth="1"/>
-    <col min="17" max="17" width="19.42578125" customWidth="1"/>
-    <col min="18" max="18" width="21.42578125" customWidth="1"/>
-    <col min="19" max="19" width="20.42578125" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" customWidth="1"/>
-    <col min="21" max="21" width="20.85546875" customWidth="1"/>
-    <col min="22" max="22" width="19.5703125" customWidth="1"/>
+    <col min="17" max="17" width="19.44140625" customWidth="1"/>
+    <col min="18" max="18" width="21.44140625" customWidth="1"/>
+    <col min="19" max="19" width="20.44140625" customWidth="1"/>
+    <col min="20" max="20" width="20.6640625" customWidth="1"/>
+    <col min="21" max="21" width="20.88671875" customWidth="1"/>
+    <col min="22" max="22" width="19.5546875" customWidth="1"/>
     <col min="23" max="23" width="19" customWidth="1"/>
-    <col min="24" max="24" width="18.42578125" customWidth="1"/>
+    <col min="24" max="24" width="18.44140625" customWidth="1"/>
     <col min="25" max="25" width="18" customWidth="1"/>
-    <col min="26" max="26" width="18.28515625" customWidth="1"/>
+    <col min="26" max="26" width="18.33203125" customWidth="1"/>
     <col min="27" max="28" width="19" customWidth="1"/>
-    <col min="29" max="29" width="21.7109375" customWidth="1"/>
-    <col min="30" max="30" width="19.5703125" customWidth="1"/>
-    <col min="31" max="31" width="19.7109375" customWidth="1"/>
-    <col min="32" max="32" width="19.28515625" customWidth="1"/>
-    <col min="33" max="33" width="19.5703125" customWidth="1"/>
-    <col min="34" max="34" width="18.85546875" customWidth="1"/>
-    <col min="35" max="35" width="19.7109375" customWidth="1"/>
-    <col min="36" max="36" width="24.140625" customWidth="1"/>
+    <col min="29" max="29" width="21.6640625" customWidth="1"/>
+    <col min="30" max="30" width="19.5546875" customWidth="1"/>
+    <col min="31" max="31" width="19.6640625" customWidth="1"/>
+    <col min="32" max="32" width="19.33203125" customWidth="1"/>
+    <col min="33" max="33" width="19.5546875" customWidth="1"/>
+    <col min="34" max="34" width="18.88671875" customWidth="1"/>
+    <col min="35" max="35" width="19.6640625" customWidth="1"/>
+    <col min="36" max="36" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="129.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:36" ht="129.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1"/>
-      <c r="D1" s="584" t="s">
+      <c r="D1" s="629" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="584"/>
-      <c r="F1" s="584"/>
-      <c r="G1" s="584"/>
-      <c r="H1" s="584"/>
-      <c r="P1" s="585" t="s">
+      <c r="E1" s="629"/>
+      <c r="F1" s="629"/>
+      <c r="G1" s="629"/>
+      <c r="H1" s="629"/>
+      <c r="P1" s="630" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="585"/>
-      <c r="R1" s="585"/>
-      <c r="S1" s="585"/>
-      <c r="T1" s="585"/>
+      <c r="Q1" s="630"/>
+      <c r="R1" s="630"/>
+      <c r="S1" s="630"/>
+      <c r="T1" s="630"/>
     </row>
-    <row r="2" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -5078,7 +5070,7 @@
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:36" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="437"/>
       <c r="B3" s="435"/>
       <c r="C3" s="5"/>
@@ -5126,7 +5118,7 @@
       <c r="AI3" s="5"/>
       <c r="AJ3" s="6"/>
     </row>
-    <row r="4" spans="1:36" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -5236,7 +5228,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>15</v>
       </c>
@@ -5341,7 +5333,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="32"/>
       <c r="B6" s="33"/>
       <c r="C6" s="34" t="s">
@@ -5444,7 +5436,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="32"/>
       <c r="B7" s="33"/>
       <c r="C7" s="440" t="s">
@@ -5522,10 +5514,10 @@
       <c r="AB7" s="441" t="s">
         <v>50</v>
       </c>
-      <c r="AC7" s="606" t="s">
+      <c r="AC7" s="604" t="s">
         <v>41</v>
       </c>
-      <c r="AD7" s="608" t="s">
+      <c r="AD7" s="606" t="s">
         <v>49</v>
       </c>
       <c r="AE7" s="441" t="s">
@@ -5547,7 +5539,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="53"/>
       <c r="B8" s="54"/>
       <c r="C8" s="55" t="s">
@@ -5650,7 +5642,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="74" t="s">
         <v>66</v>
       </c>
@@ -5758,7 +5750,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="32"/>
       <c r="B10" s="47" t="s">
         <v>66</v>
@@ -5840,7 +5832,7 @@
         <v>66</v>
       </c>
       <c r="AC10" s="82" t="s">
-        <v>412</v>
+        <v>66</v>
       </c>
       <c r="AD10" s="80" t="s">
         <v>66</v>
@@ -5864,7 +5856,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="32"/>
       <c r="B11" s="446" t="s">
         <v>47</v>
@@ -5908,7 +5900,7 @@
       <c r="O11" s="555" t="s">
         <v>150</v>
       </c>
-      <c r="P11" s="586" t="s">
+      <c r="P11" s="584" t="s">
         <v>98</v>
       </c>
       <c r="Q11" s="529" t="s">
@@ -5927,7 +5919,7 @@
         <v>74</v>
       </c>
       <c r="V11" s="82"/>
-      <c r="W11" s="607" t="s">
+      <c r="W11" s="605" t="s">
         <v>44</v>
       </c>
       <c r="X11" s="442" t="s">
@@ -5945,8 +5937,10 @@
       <c r="AB11" s="553" t="s">
         <v>41</v>
       </c>
-      <c r="AC11" s="82"/>
-      <c r="AD11" s="593" t="s">
+      <c r="AC11" s="82">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="591" t="s">
         <v>46</v>
       </c>
       <c r="AE11" s="447" t="s">
@@ -5968,7 +5962,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="53"/>
       <c r="B12" s="68" t="s">
         <v>64</v>
@@ -6049,7 +6043,9 @@
       <c r="AB12" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="AC12" s="86"/>
+      <c r="AC12" s="86" t="s">
+        <v>409</v>
+      </c>
       <c r="AD12" s="88" t="s">
         <v>63</v>
       </c>
@@ -6072,12 +6068,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="90" t="s">
         <v>80</v>
       </c>
       <c r="B13" s="455" t="s">
-        <v>333</v>
+        <v>455</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>23</v>
@@ -6180,9 +6176,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
+      <c r="B14" s="33" t="s">
+        <v>80</v>
+      </c>
       <c r="C14" s="36" t="s">
         <v>80</v>
       </c>
@@ -6284,9 +6282,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
+      <c r="B15" s="33">
+        <v>0</v>
+      </c>
       <c r="C15" s="442" t="s">
         <v>74</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>98</v>
       </c>
       <c r="I15" s="556" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J15" s="450" t="s">
         <v>50</v>
@@ -6318,15 +6318,15 @@
         <v>42</v>
       </c>
       <c r="M15" s="451" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="N15" s="448" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O15" s="459" t="s">
         <v>46</v>
       </c>
-      <c r="P15" s="587" t="s">
+      <c r="P15" s="585" t="s">
         <v>45</v>
       </c>
       <c r="Q15" s="450" t="s">
@@ -6344,7 +6344,7 @@
       <c r="U15" s="440" t="s">
         <v>86</v>
       </c>
-      <c r="V15" s="588" t="s">
+      <c r="V15" s="586" t="s">
         <v>50</v>
       </c>
       <c r="W15" s="554" t="s">
@@ -6366,7 +6366,7 @@
         <v>47</v>
       </c>
       <c r="AC15" s="82"/>
-      <c r="AD15" s="630" t="s">
+      <c r="AD15" s="628" t="s">
         <v>88</v>
       </c>
       <c r="AE15" s="452" t="s">
@@ -6376,7 +6376,7 @@
         <v>50</v>
       </c>
       <c r="AG15" s="451" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="AH15" s="456" t="s">
         <v>89</v>
@@ -6388,9 +6388,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="53"/>
-      <c r="B16" s="54"/>
+      <c r="B16" s="54" t="s">
+        <v>409</v>
+      </c>
       <c r="C16" s="57" t="s">
         <v>91</v>
       </c>
@@ -6492,7 +6494,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="74" t="s">
         <v>96</v>
       </c>
@@ -6590,7 +6592,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="32"/>
       <c r="B18" s="33"/>
       <c r="C18" s="92" t="s">
@@ -6686,7 +6688,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="32"/>
       <c r="B19" s="33"/>
       <c r="C19" s="450" t="s">
@@ -6699,7 +6701,7 @@
         <v>74</v>
       </c>
       <c r="F19" s="440" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G19" s="452" t="s">
         <v>42</v>
@@ -6734,7 +6736,7 @@
         <v>50</v>
       </c>
       <c r="S19" s="448" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="T19" s="444" t="s">
         <v>37</v>
@@ -6782,7 +6784,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="53"/>
       <c r="B20" s="54"/>
       <c r="C20" s="103" t="s">
@@ -6878,7 +6880,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="90" t="s">
         <v>105</v>
       </c>
@@ -6975,7 +6977,7 @@
       </c>
       <c r="AJ21" s="99"/>
     </row>
-    <row r="22" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="32"/>
       <c r="B22" s="33"/>
       <c r="C22" s="44" t="s">
@@ -7070,7 +7072,7 @@
       </c>
       <c r="AJ22" s="82"/>
     </row>
-    <row r="23" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="32"/>
       <c r="B23" s="33"/>
       <c r="C23" s="448" t="s">
@@ -7112,7 +7114,7 @@
         <v>49</v>
       </c>
       <c r="Q23" s="444" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="R23" s="529" t="s">
         <v>68</v>
@@ -7161,11 +7163,11 @@
         <v>67</v>
       </c>
       <c r="AI23" s="440" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="AJ23" s="82"/>
     </row>
-    <row r="24" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="53"/>
       <c r="B24" s="54"/>
       <c r="C24" s="65" t="s">
@@ -7260,7 +7262,7 @@
       </c>
       <c r="AJ24" s="86"/>
     </row>
-    <row r="25" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="74" t="s">
         <v>110</v>
       </c>
@@ -7358,7 +7360,7 @@
       </c>
       <c r="AJ25" s="78"/>
     </row>
-    <row r="26" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="32"/>
       <c r="B26" s="33"/>
       <c r="C26" s="123" t="s">
@@ -7454,7 +7456,7 @@
       </c>
       <c r="AJ26" s="82"/>
     </row>
-    <row r="27" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="32"/>
       <c r="B27" s="33"/>
       <c r="C27" s="460" t="s">
@@ -7540,7 +7542,7 @@
         <v>67</v>
       </c>
       <c r="AG27" s="440" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="AH27" s="442" t="s">
         <v>74</v>
@@ -7550,7 +7552,7 @@
       </c>
       <c r="AJ27" s="82"/>
     </row>
-    <row r="28" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="53"/>
       <c r="B28" s="54"/>
       <c r="C28" s="127" t="s">
@@ -7646,7 +7648,7 @@
       </c>
       <c r="AJ28" s="86"/>
     </row>
-    <row r="29" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="90" t="s">
         <v>113</v>
       </c>
@@ -7744,7 +7746,7 @@
       </c>
       <c r="AJ29" s="99"/>
     </row>
-    <row r="30" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="32"/>
       <c r="B30" s="33"/>
       <c r="C30" s="94" t="s">
@@ -7840,7 +7842,7 @@
       </c>
       <c r="AJ30" s="82"/>
     </row>
-    <row r="31" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="32"/>
       <c r="B31" s="33"/>
       <c r="C31" s="452" t="s">
@@ -7891,7 +7893,7 @@
         <v>86</v>
       </c>
       <c r="T31" s="444" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="U31" s="462" t="s">
         <v>78</v>
@@ -7936,7 +7938,7 @@
       </c>
       <c r="AJ31" s="82"/>
     </row>
-    <row r="32" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="53"/>
       <c r="B32" s="54"/>
       <c r="C32" s="105" t="s">
@@ -8032,7 +8034,7 @@
       </c>
       <c r="AJ32" s="86"/>
     </row>
-    <row r="33" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="74" t="s">
         <v>116</v>
       </c>
@@ -8130,7 +8132,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="32"/>
       <c r="B34" s="33"/>
       <c r="C34" s="38" t="s">
@@ -8226,11 +8228,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="32"/>
       <c r="B35" s="33"/>
       <c r="C35" s="444" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D35" s="452" t="s">
         <v>42</v>
@@ -8299,8 +8301,8 @@
       <c r="AB35" s="464" t="s">
         <v>70</v>
       </c>
-      <c r="AC35" s="608" t="s">
-        <v>350</v>
+      <c r="AC35" s="606" t="s">
+        <v>348</v>
       </c>
       <c r="AD35" s="33"/>
       <c r="AE35" s="440" t="s">
@@ -8319,10 +8321,10 @@
         <v>85</v>
       </c>
       <c r="AJ35" s="461" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="53"/>
       <c r="B36" s="54"/>
       <c r="C36" s="59" t="s">
@@ -8418,7 +8420,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="90" t="s">
         <v>119</v>
       </c>
@@ -8513,7 +8515,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="32"/>
       <c r="C38" s="132" t="s">
         <v>119</v>
@@ -8606,7 +8608,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="32"/>
       <c r="C39" s="463" t="s">
         <v>85</v>
@@ -8690,16 +8692,16 @@
         <v>42</v>
       </c>
       <c r="AH39" s="444" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AI39" s="456" t="s">
         <v>46</v>
       </c>
-      <c r="AJ39" s="595" t="s">
+      <c r="AJ39" s="593" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="53"/>
       <c r="C40" s="135" t="s">
         <v>115</v>
@@ -8792,7 +8794,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:36" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="74" t="s">
         <v>124</v>
       </c>
@@ -8902,7 +8904,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="32"/>
       <c r="B42" s="144" t="s">
         <v>124</v>
@@ -8965,7 +8967,7 @@
         <v>124</v>
       </c>
       <c r="V42" s="82" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="W42" s="148" t="s">
         <v>124</v>
@@ -9010,7 +9012,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="32"/>
       <c r="B43" s="466" t="s">
         <v>140</v>
@@ -9022,7 +9024,7 @@
         <v>141</v>
       </c>
       <c r="E43" s="469" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F43" s="469" t="s">
         <v>142</v>
@@ -9034,13 +9036,13 @@
         <v>99</v>
       </c>
       <c r="I43" s="560" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J43" s="474" t="s">
         <v>88</v>
       </c>
       <c r="K43" s="469" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="L43" s="481" t="s">
         <v>144</v>
@@ -9054,11 +9056,11 @@
       <c r="O43" s="561" t="s">
         <v>145</v>
       </c>
-      <c r="P43" s="589" t="s">
+      <c r="P43" s="587" t="s">
         <v>141</v>
       </c>
       <c r="Q43" s="469" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="R43" s="467" t="s">
         <v>140</v>
@@ -9072,7 +9074,7 @@
       <c r="U43" s="479" t="s">
         <v>45</v>
       </c>
-      <c r="V43" s="590"/>
+      <c r="V43" s="588"/>
       <c r="W43" s="470" t="s">
         <v>147</v>
       </c>
@@ -9082,7 +9084,7 @@
       <c r="Y43" s="460" t="s">
         <v>101</v>
       </c>
-      <c r="Z43" s="609" t="s">
+      <c r="Z43" s="607" t="s">
         <v>39</v>
       </c>
       <c r="AA43" s="479" t="s">
@@ -9116,7 +9118,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="53"/>
       <c r="B44" s="161" t="s">
         <v>151</v>
@@ -9222,7 +9224,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="45" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="90" t="s">
         <v>162</v>
       </c>
@@ -9330,7 +9332,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A46" s="32"/>
       <c r="B46" s="177" t="s">
         <v>162</v>
@@ -9354,7 +9356,7 @@
         <v>162</v>
       </c>
       <c r="I46" s="563" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J46" s="152" t="s">
         <v>162</v>
@@ -9438,7 +9440,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="47" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="32"/>
       <c r="B47" s="472" t="s">
         <v>169</v>
@@ -9469,7 +9471,7 @@
         <v>164</v>
       </c>
       <c r="L47" s="476" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M47" s="479" t="s">
         <v>73</v>
@@ -9480,20 +9482,20 @@
       <c r="O47" s="477" t="s">
         <v>223</v>
       </c>
-      <c r="P47" s="591" t="s">
+      <c r="P47" s="589" t="s">
         <v>140</v>
       </c>
       <c r="Q47" s="474" t="s">
         <v>88</v>
       </c>
       <c r="R47" s="476" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="S47" s="468" t="s">
         <v>141</v>
       </c>
       <c r="T47" s="481" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="U47" s="479" t="s">
         <v>73</v>
@@ -9529,7 +9531,7 @@
         <v>99</v>
       </c>
       <c r="AF47" s="476" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AG47" s="474" t="s">
         <v>88</v>
@@ -9540,11 +9542,11 @@
       <c r="AI47" s="479" t="s">
         <v>47</v>
       </c>
-      <c r="AJ47" s="629" t="s">
+      <c r="AJ47" s="627" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="53"/>
       <c r="B48" s="186" t="s">
         <v>161</v>
@@ -9650,7 +9652,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="74" t="s">
         <v>168</v>
       </c>
@@ -9750,7 +9752,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="32"/>
       <c r="B50" s="195" t="s">
         <v>168</v>
@@ -9848,7 +9850,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="51" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="32"/>
       <c r="B51" s="478" t="s">
         <v>169</v>
@@ -9883,7 +9885,7 @@
         <v>88</v>
       </c>
       <c r="N51" s="548" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="O51" s="484" t="s">
         <v>88</v>
@@ -9892,11 +9894,11 @@
       <c r="Q51" s="467" t="s">
         <v>78</v>
       </c>
-      <c r="R51" s="592" t="s">
+      <c r="R51" s="590" t="s">
         <v>143</v>
       </c>
       <c r="S51" s="548" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="T51" s="473" t="s">
         <v>99</v>
@@ -9921,7 +9923,7 @@
         <v>172</v>
       </c>
       <c r="AB51" s="548" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AC51" s="561" t="s">
         <v>145</v>
@@ -9946,7 +9948,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="53"/>
       <c r="B52" s="199" t="s">
         <v>161</v>
@@ -10044,7 +10046,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="90" t="s">
         <v>179</v>
       </c>
@@ -10144,7 +10146,7 @@
       </c>
       <c r="AJ53" s="99"/>
     </row>
-    <row r="54" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="32"/>
       <c r="B54" s="33"/>
       <c r="C54" s="179" t="s">
@@ -10242,17 +10244,17 @@
       </c>
       <c r="AJ54" s="82"/>
     </row>
-    <row r="55" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="32"/>
       <c r="B55" s="33"/>
       <c r="C55" s="475" t="s">
         <v>148</v>
       </c>
       <c r="D55" s="469" t="s">
+        <v>336</v>
+      </c>
+      <c r="E55" s="481" t="s">
         <v>337</v>
-      </c>
-      <c r="E55" s="481" t="s">
-        <v>338</v>
       </c>
       <c r="F55" s="481" t="s">
         <v>144</v>
@@ -10274,7 +10276,7 @@
         <v>141</v>
       </c>
       <c r="M55" s="469" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="N55" s="474" t="s">
         <v>88</v>
@@ -10299,7 +10301,7 @@
         <v>88</v>
       </c>
       <c r="V55" s="543" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="W55" s="33"/>
       <c r="X55" s="475" t="s">
@@ -10311,7 +10313,7 @@
       <c r="Z55" s="468" t="s">
         <v>141</v>
       </c>
-      <c r="AA55" s="592" t="s">
+      <c r="AA55" s="590" t="s">
         <v>143</v>
       </c>
       <c r="AB55" s="474" t="s">
@@ -10320,11 +10322,11 @@
       <c r="AC55" s="514" t="s">
         <v>122</v>
       </c>
-      <c r="AD55" s="628" t="s">
-        <v>454</v>
+      <c r="AD55" s="626" t="s">
+        <v>451</v>
       </c>
       <c r="AE55" s="469" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="AF55" s="468" t="s">
         <v>141</v>
@@ -10340,7 +10342,7 @@
       </c>
       <c r="AJ55" s="82"/>
     </row>
-    <row r="56" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="53"/>
       <c r="B56" s="54"/>
       <c r="C56" s="188" t="s">
@@ -10438,7 +10440,7 @@
       </c>
       <c r="AJ56" s="86"/>
     </row>
-    <row r="57" spans="1:36" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="74" t="s">
         <v>180</v>
       </c>
@@ -10538,7 +10540,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="32"/>
       <c r="B58" s="33"/>
       <c r="C58" s="152" t="s">
@@ -10636,7 +10638,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="59" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="32"/>
       <c r="B59" s="33"/>
       <c r="C59" s="479" t="s">
@@ -10659,7 +10661,7 @@
       </c>
       <c r="I59" s="33"/>
       <c r="J59" s="481" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="K59" s="474" t="s">
         <v>88</v>
@@ -10675,7 +10677,7 @@
       </c>
       <c r="O59" s="82"/>
       <c r="P59" s="560" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="Q59" s="480" t="s">
         <v>145</v>
@@ -10686,18 +10688,18 @@
       <c r="S59" s="474" t="s">
         <v>88</v>
       </c>
-      <c r="T59" s="592" t="s">
+      <c r="T59" s="590" t="s">
         <v>143</v>
       </c>
       <c r="U59" s="548" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="V59" s="482" t="s">
         <v>48</v>
       </c>
       <c r="W59" s="33"/>
       <c r="X59" s="548" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="Y59" s="475" t="s">
         <v>148</v>
@@ -10712,7 +10714,7 @@
         <v>172</v>
       </c>
       <c r="AC59" s="550" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AD59" s="33"/>
       <c r="AE59" s="481" t="s">
@@ -10722,7 +10724,7 @@
         <v>172</v>
       </c>
       <c r="AG59" s="548" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="AH59" s="474" t="s">
         <v>88</v>
@@ -10734,7 +10736,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="53"/>
       <c r="B60" s="54"/>
       <c r="C60" s="169" t="s">
@@ -10832,7 +10834,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="61" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="90" t="s">
         <v>181</v>
       </c>
@@ -10942,7 +10944,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="32"/>
       <c r="B62" s="212" t="s">
         <v>181</v>
@@ -11050,7 +11052,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="63" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="32"/>
       <c r="B63" s="485" t="s">
         <v>194</v>
@@ -11094,10 +11096,10 @@
       <c r="O63" s="565" t="s">
         <v>49</v>
       </c>
-      <c r="P63" s="593" t="s">
+      <c r="P63" s="591" t="s">
         <v>48</v>
       </c>
-      <c r="Q63" s="594" t="s">
+      <c r="Q63" s="592" t="s">
         <v>75</v>
       </c>
       <c r="R63" s="486" t="s">
@@ -11112,7 +11114,7 @@
       <c r="U63" s="530" t="s">
         <v>146</v>
       </c>
-      <c r="V63" s="595" t="s">
+      <c r="V63" s="593" t="s">
         <v>78</v>
       </c>
       <c r="W63" s="566" t="s">
@@ -11128,7 +11130,7 @@
         <v>45</v>
       </c>
       <c r="AA63" s="500" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AB63" s="530" t="s">
         <v>146</v>
@@ -11136,29 +11138,29 @@
       <c r="AC63" s="459" t="s">
         <v>46</v>
       </c>
-      <c r="AD63" s="615" t="s">
+      <c r="AD63" s="613" t="s">
         <v>88</v>
       </c>
-      <c r="AE63" s="594" t="s">
+      <c r="AE63" s="592" t="s">
         <v>75</v>
       </c>
       <c r="AF63" s="462" t="s">
         <v>148</v>
       </c>
       <c r="AG63" s="500" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="AH63" s="487" t="s">
         <v>49</v>
       </c>
       <c r="AI63" s="496" t="s">
-        <v>384</v>
-      </c>
-      <c r="AJ63" s="627" t="s">
-        <v>452</v>
+        <v>381</v>
+      </c>
+      <c r="AJ63" s="625" t="s">
+        <v>449</v>
       </c>
     </row>
-    <row r="64" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="53"/>
       <c r="B64" s="222" t="s">
         <v>65</v>
@@ -11266,7 +11268,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="74" t="s">
         <v>203</v>
       </c>
@@ -11376,7 +11378,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="32"/>
       <c r="B66" s="232" t="s">
         <v>203</v>
@@ -11484,7 +11486,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="67" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="32"/>
       <c r="B67" s="489" t="s">
         <v>108</v>
@@ -11505,7 +11507,7 @@
         <v>204</v>
       </c>
       <c r="H67" s="492" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I67" s="566" t="s">
         <v>45</v>
@@ -11523,7 +11525,7 @@
         <v>150</v>
       </c>
       <c r="N67" s="500" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="O67" s="454" t="s">
         <v>98</v>
@@ -11534,7 +11536,7 @@
       <c r="Q67" s="486" t="s">
         <v>45</v>
       </c>
-      <c r="R67" s="594" t="s">
+      <c r="R67" s="592" t="s">
         <v>75</v>
       </c>
       <c r="S67" s="462" t="s">
@@ -11570,7 +11572,7 @@
       <c r="AC67" s="508" t="s">
         <v>205</v>
       </c>
-      <c r="AD67" s="626" t="s">
+      <c r="AD67" s="624" t="s">
         <v>150</v>
       </c>
       <c r="AE67" s="490" t="s">
@@ -11592,7 +11594,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="53"/>
       <c r="B68" s="237" t="s">
         <v>114</v>
@@ -11700,7 +11702,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="69" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="90" t="s">
         <v>210</v>
       </c>
@@ -11810,7 +11812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="32"/>
       <c r="B70" s="242" t="s">
         <v>210</v>
@@ -11918,10 +11920,10 @@
         <v>210</v>
       </c>
     </row>
-    <row r="71" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="32"/>
       <c r="B71" s="493" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C71" s="494" t="s">
         <v>72</v>
@@ -11933,7 +11935,7 @@
         <v>69</v>
       </c>
       <c r="F71" s="496" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G71" s="497" t="s">
         <v>172</v>
@@ -11971,7 +11973,7 @@
       <c r="R71" s="464" t="s">
         <v>69</v>
       </c>
-      <c r="S71" s="594" t="s">
+      <c r="S71" s="592" t="s">
         <v>75</v>
       </c>
       <c r="T71" s="497" t="s">
@@ -11983,7 +11985,7 @@
       <c r="V71" s="454" t="s">
         <v>98</v>
       </c>
-      <c r="W71" s="610" t="s">
+      <c r="W71" s="608" t="s">
         <v>213</v>
       </c>
       <c r="X71" s="494" t="s">
@@ -12010,7 +12012,7 @@
       <c r="AE71" s="464" t="s">
         <v>100</v>
       </c>
-      <c r="AF71" s="594" t="s">
+      <c r="AF71" s="592" t="s">
         <v>83</v>
       </c>
       <c r="AG71" s="443" t="s">
@@ -12023,10 +12025,10 @@
         <v>46</v>
       </c>
       <c r="AJ71" s="508" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
-    <row r="72" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="53"/>
       <c r="B72" s="248" t="s">
         <v>199</v>
@@ -12134,7 +12136,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="73" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="74" t="s">
         <v>218</v>
       </c>
@@ -12238,7 +12240,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="32"/>
       <c r="B74" s="255" t="s">
         <v>218</v>
@@ -12340,13 +12342,13 @@
         <v>218</v>
       </c>
     </row>
-    <row r="75" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="32"/>
       <c r="B75" s="499" t="s">
         <v>42</v>
       </c>
       <c r="C75" s="500" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D75" s="443" t="s">
         <v>36</v>
@@ -12380,7 +12382,7 @@
         <v>169</v>
       </c>
       <c r="O75" s="508" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="P75" s="554" t="s">
         <v>69</v>
@@ -12397,7 +12399,7 @@
       <c r="T75" s="530" t="s">
         <v>146</v>
       </c>
-      <c r="U75" s="594" t="s">
+      <c r="U75" s="592" t="s">
         <v>75</v>
       </c>
       <c r="V75" s="565" t="s">
@@ -12417,10 +12419,10 @@
         <v>169</v>
       </c>
       <c r="AB75" s="500" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="AC75" s="492" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="AD75" s="33"/>
       <c r="AE75" s="495" t="s">
@@ -12442,7 +12444,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="53"/>
       <c r="B76" s="256" t="s">
         <v>198</v>
@@ -12544,7 +12546,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="77" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="90" t="s">
         <v>221</v>
       </c>
@@ -12648,7 +12650,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="32"/>
       <c r="B78" s="33"/>
       <c r="C78" s="121" t="s">
@@ -12750,7 +12752,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="79" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="32"/>
       <c r="B79" s="33"/>
       <c r="C79" s="457" t="s">
@@ -12809,7 +12811,7 @@
         <v>36</v>
       </c>
       <c r="V79" s="508" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="W79" s="33"/>
       <c r="X79" s="491" t="s">
@@ -12830,7 +12832,7 @@
       <c r="AC79" s="498" t="s">
         <v>36</v>
       </c>
-      <c r="AD79" s="625" t="s">
+      <c r="AD79" s="623" t="s">
         <v>75</v>
       </c>
       <c r="AE79" s="457" t="s">
@@ -12843,7 +12845,7 @@
         <v>69</v>
       </c>
       <c r="AH79" s="500" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AI79" s="453" t="s">
         <v>35</v>
@@ -12852,7 +12854,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="53"/>
       <c r="B80" s="54"/>
       <c r="C80" s="122" t="s">
@@ -12954,7 +12956,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="74" t="s">
         <v>228</v>
       </c>
@@ -13058,7 +13060,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="32"/>
       <c r="B82" s="33"/>
       <c r="C82" s="123" t="s">
@@ -13160,7 +13162,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="83" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="32"/>
       <c r="B83" s="33"/>
       <c r="C83" s="460" t="s">
@@ -13189,7 +13191,7 @@
         <v>72</v>
       </c>
       <c r="L83" s="470" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M83" s="474" t="s">
         <v>41</v>
@@ -13210,7 +13212,7 @@
         <v>41</v>
       </c>
       <c r="S83" s="500" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="T83" s="464" t="s">
         <v>69</v>
@@ -13240,7 +13242,7 @@
         <v>69</v>
       </c>
       <c r="AC83" s="82"/>
-      <c r="AD83" s="622" t="s">
+      <c r="AD83" s="620" t="s">
         <v>72</v>
       </c>
       <c r="AE83" s="460" t="s">
@@ -13258,11 +13260,11 @@
       <c r="AI83" s="530" t="s">
         <v>146</v>
       </c>
-      <c r="AJ83" s="624" t="s">
+      <c r="AJ83" s="622" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="84" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="53"/>
       <c r="B84" s="54"/>
       <c r="C84" s="127" t="s">
@@ -13364,7 +13366,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="85" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="90" t="s">
         <v>231</v>
       </c>
@@ -13468,7 +13470,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="32"/>
       <c r="B86" s="195" t="s">
         <v>231</v>
@@ -13570,7 +13572,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="87" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="32"/>
       <c r="B87" s="478" t="s">
         <v>211</v>
@@ -13588,11 +13590,11 @@
         <v>150</v>
       </c>
       <c r="G87" s="500" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H87" s="82"/>
       <c r="I87" s="493" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J87" s="464" t="s">
         <v>70</v>
@@ -13610,7 +13612,7 @@
         <v>150</v>
       </c>
       <c r="O87" s="568" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="P87" s="33"/>
       <c r="Q87" s="464" t="s">
@@ -13641,7 +13643,7 @@
         <v>169</v>
       </c>
       <c r="Z87" s="500" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="AA87" s="495" t="s">
         <v>46</v>
@@ -13672,7 +13674,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="88" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="53"/>
       <c r="B88" s="199" t="s">
         <v>224</v>
@@ -13774,7 +13776,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="74" t="s">
         <v>233</v>
       </c>
@@ -13878,7 +13880,7 @@
       </c>
       <c r="AJ89" s="78"/>
     </row>
-    <row r="90" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="32"/>
       <c r="B90" s="272" t="s">
         <v>233</v>
@@ -13980,7 +13982,7 @@
       </c>
       <c r="AJ90" s="82"/>
     </row>
-    <row r="91" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="32"/>
       <c r="B91" s="506" t="s">
         <v>150</v>
@@ -14032,15 +14034,15 @@
         <v>150</v>
       </c>
       <c r="S91" s="540" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="T91" s="463" t="s">
         <v>169</v>
       </c>
       <c r="U91" s="500" t="s">
-        <v>406</v>
-      </c>
-      <c r="V91" s="596" t="s">
+        <v>403</v>
+      </c>
+      <c r="V91" s="594" t="s">
         <v>150</v>
       </c>
       <c r="W91" s="33"/>
@@ -14078,11 +14080,11 @@
         <v>150</v>
       </c>
       <c r="AI91" s="500" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AJ91" s="82"/>
     </row>
-    <row r="92" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="53"/>
       <c r="B92" s="274" t="s">
         <v>207</v>
@@ -14184,7 +14186,7 @@
       </c>
       <c r="AJ92" s="86"/>
     </row>
-    <row r="93" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="90" t="s">
         <v>238</v>
       </c>
@@ -14288,7 +14290,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="94" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="32"/>
       <c r="B94" s="33"/>
       <c r="C94" s="140" t="s">
@@ -14390,7 +14392,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="95" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="32"/>
       <c r="B95" s="33"/>
       <c r="C95" s="491" t="s">
@@ -14409,14 +14411,14 @@
         <v>150</v>
       </c>
       <c r="H95" s="508" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I95" s="33"/>
       <c r="J95" s="490" t="s">
         <v>150</v>
       </c>
       <c r="K95" s="500" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L95" s="491" t="s">
         <v>78</v>
@@ -14449,7 +14451,7 @@
         <v>41</v>
       </c>
       <c r="V95" s="568" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="W95" s="567" t="s">
         <v>194</v>
@@ -14458,7 +14460,7 @@
         <v>150</v>
       </c>
       <c r="Y95" s="470" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="Z95" s="463" t="s">
         <v>169</v>
@@ -14492,7 +14494,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="96" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="53"/>
       <c r="B96" s="54"/>
       <c r="C96" s="142" t="s">
@@ -14594,7 +14596,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="97" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="74" t="s">
         <v>240</v>
       </c>
@@ -14704,7 +14706,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="98" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="32"/>
       <c r="B98" s="283" t="s">
         <v>240</v>
@@ -14812,7 +14814,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="99" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="32"/>
       <c r="B99" s="509" t="s">
         <v>75</v>
@@ -14851,12 +14853,12 @@
         <v>34</v>
       </c>
       <c r="N99" s="511" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="O99" s="572" t="s">
         <v>48</v>
       </c>
-      <c r="P99" s="597" t="s">
+      <c r="P99" s="595" t="s">
         <v>149</v>
       </c>
       <c r="Q99" s="512" t="s">
@@ -14869,7 +14871,7 @@
         <v>172</v>
       </c>
       <c r="T99" s="511" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="U99" s="521" t="s">
         <v>39</v>
@@ -14877,13 +14879,13 @@
       <c r="V99" s="545" t="s">
         <v>143</v>
       </c>
-      <c r="W99" s="611" t="s">
+      <c r="W99" s="609" t="s">
         <v>50</v>
       </c>
       <c r="X99" s="510" t="s">
         <v>213</v>
       </c>
-      <c r="Y99" s="592" t="s">
+      <c r="Y99" s="590" t="s">
         <v>90</v>
       </c>
       <c r="Z99" s="475" t="s">
@@ -14893,19 +14895,19 @@
         <v>34</v>
       </c>
       <c r="AB99" s="511" t="s">
-        <v>336</v>
-      </c>
-      <c r="AC99" s="612" t="s">
+        <v>335</v>
+      </c>
+      <c r="AC99" s="610" t="s">
         <v>213</v>
       </c>
-      <c r="AD99" s="599" t="s">
+      <c r="AD99" s="597" t="s">
         <v>204</v>
       </c>
       <c r="AE99" s="574" t="s">
         <v>145</v>
       </c>
       <c r="AF99" s="513" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="AG99" s="516" t="s">
         <v>43</v>
@@ -14920,7 +14922,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="53"/>
       <c r="B100" s="300" t="s">
         <v>247</v>
@@ -15028,7 +15030,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="101" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="90" t="s">
         <v>260</v>
       </c>
@@ -15138,7 +15140,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="102" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="32"/>
       <c r="B102" s="317" t="s">
         <v>260</v>
@@ -15246,7 +15248,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="103" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="32"/>
       <c r="B103" s="515" t="s">
         <v>261</v>
@@ -15279,18 +15281,18 @@
         <v>213</v>
       </c>
       <c r="L103" s="517" t="s">
+        <v>374</v>
+      </c>
+      <c r="M103" s="511" t="s">
+        <v>375</v>
+      </c>
+      <c r="N103" s="520" t="s">
         <v>376</v>
-      </c>
-      <c r="M103" s="511" t="s">
-        <v>377</v>
-      </c>
-      <c r="N103" s="520" t="s">
-        <v>378</v>
       </c>
       <c r="O103" s="573" t="s">
         <v>34</v>
       </c>
-      <c r="P103" s="598" t="s">
+      <c r="P103" s="596" t="s">
         <v>90</v>
       </c>
       <c r="Q103" s="510" t="s">
@@ -15300,10 +15302,10 @@
         <v>170</v>
       </c>
       <c r="S103" s="511" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="T103" s="517" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="U103" s="502" t="s">
         <v>84</v>
@@ -15326,11 +15328,11 @@
       <c r="AA103" s="496" t="s">
         <v>170</v>
       </c>
-      <c r="AB103" s="613" t="s">
+      <c r="AB103" s="611" t="s">
         <v>45</v>
       </c>
       <c r="AC103" s="575" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AD103" s="472" t="s">
         <v>35</v>
@@ -15350,11 +15352,11 @@
       <c r="AI103" s="520" t="s">
         <v>73</v>
       </c>
-      <c r="AJ103" s="600" t="s">
+      <c r="AJ103" s="598" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="104" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="53"/>
       <c r="B104" s="327" t="s">
         <v>249</v>
@@ -15462,7 +15464,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="105" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="74" t="s">
         <v>267</v>
       </c>
@@ -15568,7 +15570,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="106" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="32"/>
       <c r="B106" s="337" t="s">
         <v>267</v>
@@ -15671,7 +15673,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="107" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="32"/>
       <c r="B107" s="519" t="s">
         <v>262</v>
@@ -15680,7 +15682,7 @@
         <v>172</v>
       </c>
       <c r="D107" s="517" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E107" s="517" t="s">
         <v>246</v>
@@ -15713,7 +15715,7 @@
         <v>36</v>
       </c>
       <c r="O107" s="575" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P107" s="578" t="s">
         <v>108</v>
@@ -15731,10 +15733,10 @@
         <v>84</v>
       </c>
       <c r="U107" s="511" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="V107" s="575" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="X107" s="511" t="s">
         <v>245</v>
@@ -15774,7 +15776,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="108" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="53"/>
       <c r="B108" s="340" t="s">
         <v>266</v>
@@ -15877,7 +15879,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="109" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="90" t="s">
         <v>269</v>
       </c>
@@ -15982,7 +15984,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="110" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="32"/>
       <c r="B110" s="33"/>
       <c r="C110" s="289" t="s">
@@ -16086,7 +16088,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="111" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="32"/>
       <c r="B111" s="33"/>
       <c r="C111" s="521" t="s">
@@ -16128,11 +16130,11 @@
       <c r="O111" s="576" t="s">
         <v>39</v>
       </c>
-      <c r="P111" s="599" t="s">
+      <c r="P111" s="597" t="s">
         <v>169</v>
       </c>
       <c r="Q111" s="443" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="R111" s="479" t="s">
         <v>46</v>
@@ -16146,8 +16148,8 @@
       <c r="U111" s="517" t="s">
         <v>229</v>
       </c>
-      <c r="V111" s="600" t="s">
-        <v>410</v>
+      <c r="V111" s="598" t="s">
+        <v>407</v>
       </c>
       <c r="W111" s="33"/>
       <c r="X111" s="475" t="s">
@@ -16163,16 +16165,16 @@
         <v>48</v>
       </c>
       <c r="AB111" s="443" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AC111" s="576" t="s">
         <v>39</v>
       </c>
-      <c r="AD111" s="611" t="s">
+      <c r="AD111" s="609" t="s">
         <v>51</v>
       </c>
       <c r="AE111" s="517" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AF111" s="479" t="s">
         <v>149</v>
@@ -16187,10 +16189,10 @@
         <v>108</v>
       </c>
       <c r="AJ111" s="498" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
-    <row r="112" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="53"/>
       <c r="B112" s="54"/>
       <c r="C112" s="306" t="s">
@@ -16294,7 +16296,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="113" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="74" t="s">
         <v>272</v>
       </c>
@@ -16398,7 +16400,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="114" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="32"/>
       <c r="C114" s="338" t="s">
         <v>272</v>
@@ -16500,7 +16502,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="115" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="32"/>
       <c r="C115" s="523" t="s">
         <v>148</v>
@@ -16527,7 +16529,7 @@
         <v>213</v>
       </c>
       <c r="K115" s="443" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L115" s="475" t="s">
         <v>34</v>
@@ -16536,7 +16538,7 @@
         <v>39</v>
       </c>
       <c r="N115" s="517" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="O115" s="547" t="s">
         <v>47</v>
@@ -16554,12 +16556,12 @@
         <v>172</v>
       </c>
       <c r="U115" s="443" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="V115" s="503" t="s">
         <v>146</v>
       </c>
-      <c r="W115" s="614" t="s">
+      <c r="W115" s="612" t="s">
         <v>145</v>
       </c>
       <c r="X115" s="517" t="s">
@@ -16578,9 +16580,9 @@
         <v>89</v>
       </c>
       <c r="AC115" s="498" t="s">
-        <v>370</v>
-      </c>
-      <c r="AD115" s="622" t="s">
+        <v>368</v>
+      </c>
+      <c r="AD115" s="620" t="s">
         <v>50</v>
       </c>
       <c r="AE115" s="577" t="s">
@@ -16598,11 +16600,11 @@
       <c r="AI115" s="523" t="s">
         <v>50</v>
       </c>
-      <c r="AJ115" s="623" t="s">
+      <c r="AJ115" s="621" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="116" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="53"/>
       <c r="C116" s="341" t="s">
         <v>268</v>
@@ -16704,7 +16706,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="117" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="90" t="s">
         <v>276</v>
       </c>
@@ -16810,7 +16812,7 @@
       </c>
       <c r="AJ117" s="99"/>
     </row>
-    <row r="118" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="32"/>
       <c r="B118" s="184" t="s">
         <v>276</v>
@@ -16914,7 +16916,7 @@
       </c>
       <c r="AJ118" s="82"/>
     </row>
-    <row r="119" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="32"/>
       <c r="B119" s="525" t="s">
         <v>73</v>
@@ -16929,13 +16931,13 @@
         <v>170</v>
       </c>
       <c r="F119" s="520" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G119" s="523" t="s">
         <v>43</v>
       </c>
       <c r="H119" s="518" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I119" s="578" t="s">
         <v>108</v>
@@ -16957,7 +16959,7 @@
       </c>
       <c r="O119" s="82"/>
       <c r="P119" s="478" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="Q119" s="479" t="s">
         <v>47</v>
@@ -16969,7 +16971,7 @@
         <v>39</v>
       </c>
       <c r="T119" s="443" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="U119" s="541" t="s">
         <v>141</v>
@@ -16977,11 +16979,11 @@
       <c r="V119" s="518" t="s">
         <v>246</v>
       </c>
-      <c r="W119" s="615" t="s">
-        <v>370</v>
+      <c r="W119" s="613" t="s">
+        <v>368</v>
       </c>
       <c r="X119" s="443" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="Y119" s="577" t="s">
         <v>39</v>
@@ -17011,14 +17013,14 @@
         <v>148</v>
       </c>
       <c r="AH119" s="443" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AI119" s="574" t="s">
         <v>145</v>
       </c>
       <c r="AJ119" s="82"/>
     </row>
-    <row r="120" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="53"/>
       <c r="B120" s="193" t="s">
         <v>167</v>
@@ -17122,7 +17124,7 @@
       </c>
       <c r="AJ120" s="86"/>
     </row>
-    <row r="121" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="74" t="s">
         <v>277</v>
       </c>
@@ -17229,7 +17231,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="122" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="32"/>
       <c r="B122" s="353" t="s">
         <v>277</v>
@@ -17331,13 +17333,13 @@
         <v>277</v>
       </c>
       <c r="AJ122" s="82" t="s">
-        <v>348</v>
+        <v>277</v>
       </c>
     </row>
-    <row r="123" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="32"/>
       <c r="B123" s="526" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C123" s="527" t="s">
         <v>36</v>
@@ -17354,7 +17356,7 @@
       <c r="G123" s="528" t="s">
         <v>211</v>
       </c>
-      <c r="H123" s="602" t="s">
+      <c r="H123" s="600" t="s">
         <v>48</v>
       </c>
       <c r="J123" s="491" t="s">
@@ -17370,12 +17372,12 @@
         <v>234</v>
       </c>
       <c r="N123" s="513" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="O123" s="533" t="s">
         <v>76</v>
       </c>
-      <c r="P123" s="601" t="s">
+      <c r="P123" s="599" t="s">
         <v>41</v>
       </c>
       <c r="Q123" s="530" t="s">
@@ -17388,7 +17390,7 @@
         <v>70</v>
       </c>
       <c r="T123" s="540" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="U123" s="458" t="s">
         <v>34</v>
@@ -17397,10 +17399,10 @@
         <v>51</v>
       </c>
       <c r="W123" s="485" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="X123" s="513" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="Y123" s="528" t="s">
         <v>211</v>
@@ -17414,10 +17416,10 @@
       <c r="AB123" s="458" t="s">
         <v>39</v>
       </c>
-      <c r="AC123" s="602" t="s">
+      <c r="AC123" s="600" t="s">
         <v>48</v>
       </c>
-      <c r="AD123" s="597" t="s">
+      <c r="AD123" s="595" t="s">
         <v>90</v>
       </c>
       <c r="AE123" s="527" t="s">
@@ -17435,8 +17437,11 @@
       <c r="AI123" s="491" t="s">
         <v>140</v>
       </c>
+      <c r="AJ123">
+        <v>0</v>
+      </c>
     </row>
-    <row r="124" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="53"/>
       <c r="B124" s="359" t="s">
         <v>281</v>
@@ -17537,8 +17542,11 @@
       <c r="AI124" s="142" t="s">
         <v>283</v>
       </c>
+      <c r="AJ124" t="s">
+        <v>409</v>
+      </c>
     </row>
-    <row r="125" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="90" t="s">
         <v>286</v>
       </c>
@@ -17561,7 +17569,9 @@
       <c r="H125" s="356" t="s">
         <v>19</v>
       </c>
-      <c r="I125" s="91"/>
+      <c r="I125" s="455" t="s">
+        <v>455</v>
+      </c>
       <c r="J125" s="354" t="s">
         <v>17</v>
       </c>
@@ -17644,7 +17654,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="32"/>
       <c r="B126" s="33"/>
       <c r="C126" s="45" t="s">
@@ -17666,7 +17676,7 @@
         <v>286</v>
       </c>
       <c r="I126" s="562" t="s">
-        <v>382</v>
+        <v>286</v>
       </c>
       <c r="J126" s="354" t="s">
         <v>286</v>
@@ -17750,7 +17760,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="127" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="32"/>
       <c r="B127" s="33"/>
       <c r="C127" s="529" t="s">
@@ -17771,7 +17781,9 @@
       <c r="H127" s="533" t="s">
         <v>85</v>
       </c>
-      <c r="I127" s="33"/>
+      <c r="I127" s="33">
+        <v>0</v>
+      </c>
       <c r="J127" s="528" t="s">
         <v>211</v>
       </c>
@@ -17785,7 +17797,7 @@
         <v>287</v>
       </c>
       <c r="N127" s="540" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="O127" s="547" t="s">
         <v>147</v>
@@ -17808,20 +17820,20 @@
       <c r="U127" s="531" t="s">
         <v>204</v>
       </c>
-      <c r="V127" s="602" t="s">
+      <c r="V127" s="600" t="s">
         <v>101</v>
       </c>
-      <c r="W127" s="616" t="s">
+      <c r="W127" s="614" t="s">
         <v>211</v>
       </c>
       <c r="X127" s="527" t="s">
         <v>149</v>
       </c>
       <c r="Y127" s="444" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="Z127" s="540" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="AA127" s="530" t="s">
         <v>51</v>
@@ -17829,11 +17841,11 @@
       <c r="AB127" s="513" t="s">
         <v>288</v>
       </c>
-      <c r="AC127" s="617" t="s">
+      <c r="AC127" s="615" t="s">
         <v>211</v>
       </c>
       <c r="AD127" s="579" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AE127" s="528" t="s">
         <v>211</v>
@@ -17854,7 +17866,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="128" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="53"/>
       <c r="B128" s="54"/>
       <c r="C128" s="66" t="s">
@@ -17875,7 +17887,9 @@
       <c r="H128" s="362" t="s">
         <v>102</v>
       </c>
-      <c r="I128" s="54"/>
+      <c r="I128" s="54" t="s">
+        <v>409</v>
+      </c>
       <c r="J128" s="360" t="s">
         <v>282</v>
       </c>
@@ -17958,7 +17972,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="129" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="74" t="s">
         <v>291</v>
       </c>
@@ -18002,7 +18016,9 @@
       <c r="O129" s="377" t="s">
         <v>24</v>
       </c>
-      <c r="P129" s="112"/>
+      <c r="P129" s="112" t="s">
+        <v>29</v>
+      </c>
       <c r="Q129" s="376" t="s">
         <v>17</v>
       </c>
@@ -18064,7 +18080,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="130" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="32"/>
       <c r="B130" s="375" t="s">
         <v>291</v>
@@ -18107,7 +18123,7 @@
         <v>291</v>
       </c>
       <c r="P130" s="33" t="s">
-        <v>29</v>
+        <v>291</v>
       </c>
       <c r="Q130" s="376" t="s">
         <v>291</v>
@@ -18170,13 +18186,13 @@
         <v>291</v>
       </c>
     </row>
-    <row r="131" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="32"/>
       <c r="B131" s="534" t="s">
         <v>100</v>
       </c>
       <c r="C131" s="513" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D131" s="531" t="s">
         <v>204</v>
@@ -18198,7 +18214,7 @@
         <v>108</v>
       </c>
       <c r="K131" s="540" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="L131" s="513" t="s">
         <v>287</v>
@@ -18212,8 +18228,8 @@
       <c r="O131" s="580" t="s">
         <v>149</v>
       </c>
-      <c r="P131" s="603" t="s">
-        <v>412</v>
+      <c r="P131" s="601">
+        <v>0</v>
       </c>
       <c r="Q131" s="535" t="s">
         <v>108</v>
@@ -18222,7 +18238,7 @@
         <v>204</v>
       </c>
       <c r="S131" s="444" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="T131" s="527" t="s">
         <v>149</v>
@@ -18233,14 +18249,14 @@
       <c r="V131" s="514" t="s">
         <v>67</v>
       </c>
-      <c r="W131" s="618" t="s">
+      <c r="W131" s="616" t="s">
         <v>85</v>
       </c>
       <c r="X131" s="535" t="s">
         <v>108</v>
       </c>
       <c r="Y131" s="540" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="Z131" s="457" t="s">
         <v>67</v>
@@ -18254,7 +18270,7 @@
       <c r="AC131" s="507" t="s">
         <v>69</v>
       </c>
-      <c r="AD131" s="605" t="s">
+      <c r="AD131" s="603" t="s">
         <v>99</v>
       </c>
       <c r="AE131" s="535" t="s">
@@ -18272,11 +18288,11 @@
       <c r="AI131" s="458" t="s">
         <v>76</v>
       </c>
-      <c r="AJ131" s="621" t="s">
+      <c r="AJ131" s="619" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="132" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="53"/>
       <c r="B132" s="381" t="s">
         <v>112</v>
@@ -18318,7 +18334,9 @@
       <c r="O132" s="383" t="s">
         <v>103</v>
       </c>
-      <c r="P132" s="54"/>
+      <c r="P132" s="54" t="s">
+        <v>409</v>
+      </c>
       <c r="Q132" s="382" t="s">
         <v>292</v>
       </c>
@@ -18380,7 +18398,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="133" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="90" t="s">
         <v>293</v>
       </c>
@@ -18478,7 +18496,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="134" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="32"/>
       <c r="B134" s="33"/>
       <c r="C134" s="376" t="s">
@@ -18574,7 +18592,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="135" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="32"/>
       <c r="B135" s="33"/>
       <c r="C135" s="535" t="s">
@@ -18603,10 +18621,10 @@
         <v>108</v>
       </c>
       <c r="L135" s="540" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="M135" s="444" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="N135" s="538" t="s">
         <v>101</v>
@@ -18647,7 +18665,7 @@
         <v>149</v>
       </c>
       <c r="AB135" s="540" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AC135" s="82"/>
       <c r="AD135" s="33"/>
@@ -18658,7 +18676,7 @@
         <v>89</v>
       </c>
       <c r="AG135" s="513" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AH135" s="535" t="s">
         <v>148</v>
@@ -18670,7 +18688,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="136" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="53"/>
       <c r="B136" s="54"/>
       <c r="C136" s="382" t="s">
@@ -18766,7 +18784,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="137" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="74" t="s">
         <v>297</v>
       </c>
@@ -18864,7 +18882,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="32"/>
       <c r="B138" s="33"/>
       <c r="C138" s="393" t="s">
@@ -18960,7 +18978,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="139" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="32"/>
       <c r="B139" s="33"/>
       <c r="C139" s="537" t="s">
@@ -19034,7 +19052,7 @@
         <v>149</v>
       </c>
       <c r="AC139" s="568" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="AD139" s="33"/>
       <c r="AE139" s="537" t="s">
@@ -19050,13 +19068,13 @@
         <v>73</v>
       </c>
       <c r="AI139" s="540" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AJ139" s="533" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="140" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="53"/>
       <c r="B140" s="54"/>
       <c r="C140" s="394" t="s">
@@ -19152,7 +19170,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="141" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="90" t="s">
         <v>300</v>
       </c>
@@ -19250,7 +19268,7 @@
       </c>
       <c r="AJ141" s="99"/>
     </row>
-    <row r="142" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="32"/>
       <c r="B142" s="33"/>
       <c r="C142" s="355" t="s">
@@ -19346,7 +19364,7 @@
       </c>
       <c r="AJ142" s="82"/>
     </row>
-    <row r="143" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="32"/>
       <c r="B143" s="33"/>
       <c r="C143" s="531" t="s">
@@ -19369,7 +19387,7 @@
       </c>
       <c r="I143" s="33"/>
       <c r="J143" s="513" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K143" s="487" t="s">
         <v>49</v>
@@ -19395,13 +19413,13 @@
         <v>211</v>
       </c>
       <c r="T143" s="513" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="U143" s="540" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="V143" s="492" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="W143" s="33"/>
       <c r="X143" s="531" t="s">
@@ -19422,14 +19440,14 @@
       <c r="AC143" s="565" t="s">
         <v>49</v>
       </c>
-      <c r="AD143" s="618" t="s">
+      <c r="AD143" s="616" t="s">
         <v>36</v>
       </c>
       <c r="AE143" s="473" t="s">
         <v>99</v>
       </c>
       <c r="AF143" s="540" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="AG143" s="538" t="s">
         <v>89</v>
@@ -19442,7 +19460,7 @@
       </c>
       <c r="AJ143" s="82"/>
     </row>
-    <row r="144" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="53"/>
       <c r="B144" s="54"/>
       <c r="C144" s="361" t="s">
@@ -19538,7 +19556,7 @@
       </c>
       <c r="AJ144" s="86"/>
     </row>
-    <row r="145" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="74" t="s">
         <v>302</v>
       </c>
@@ -19636,7 +19654,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="146" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="32"/>
       <c r="B146" s="212" t="s">
         <v>302</v>
@@ -19732,10 +19750,10 @@
         <v>302</v>
       </c>
     </row>
-    <row r="147" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="32"/>
       <c r="B147" s="485" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C147" s="528" t="s">
         <v>51</v>
@@ -19747,10 +19765,10 @@
         <v>49</v>
       </c>
       <c r="F147" s="540" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G147" s="491" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H147" s="82"/>
       <c r="I147" s="33"/>
@@ -19780,7 +19798,7 @@
         <v>149</v>
       </c>
       <c r="S147" s="513" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="T147" s="528" t="s">
         <v>211</v>
@@ -19810,7 +19828,7 @@
       <c r="AC147" s="82"/>
       <c r="AD147" s="33"/>
       <c r="AE147" s="540" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="AF147" s="487" t="s">
         <v>49</v>
@@ -19824,11 +19842,11 @@
       <c r="AI147" s="527" t="s">
         <v>149</v>
       </c>
-      <c r="AJ147" s="620" t="s">
+      <c r="AJ147" s="618" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="148" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="53"/>
       <c r="B148" s="222" t="s">
         <v>103</v>
@@ -19924,7 +19942,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="149" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="90" t="s">
         <v>306</v>
       </c>
@@ -20022,7 +20040,7 @@
       </c>
       <c r="AJ149" s="99"/>
     </row>
-    <row r="150" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="32"/>
       <c r="B150" s="33"/>
       <c r="C150" s="94" t="s">
@@ -20118,7 +20136,7 @@
       </c>
       <c r="AJ150" s="82"/>
     </row>
-    <row r="151" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="32"/>
       <c r="B151" s="33"/>
       <c r="C151" s="452" t="s">
@@ -20139,7 +20157,7 @@
       <c r="H151" s="82"/>
       <c r="I151" s="33"/>
       <c r="J151" s="540" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="K151" s="474" t="s">
         <v>76</v>
@@ -20174,7 +20192,7 @@
       </c>
       <c r="V151" s="82"/>
       <c r="W151" s="526" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="X151" s="452" t="s">
         <v>38</v>
@@ -20194,7 +20212,7 @@
       <c r="AC151" s="484" t="s">
         <v>85</v>
       </c>
-      <c r="AD151" s="619" t="s">
+      <c r="AD151" s="617" t="s">
         <v>40</v>
       </c>
       <c r="AE151" s="452" t="s">
@@ -20204,17 +20222,17 @@
         <v>204</v>
       </c>
       <c r="AG151" s="540" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AH151" s="491" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AI151" s="513" t="s">
         <v>307</v>
       </c>
       <c r="AJ151" s="82"/>
     </row>
-    <row r="152" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="53"/>
       <c r="B152" s="54"/>
       <c r="C152" s="105" t="s">
@@ -20310,7 +20328,7 @@
       </c>
       <c r="AJ152" s="86"/>
     </row>
-    <row r="153" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="74" t="s">
         <v>309</v>
       </c>
@@ -20408,7 +20426,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="32"/>
       <c r="B154" s="33"/>
       <c r="C154" s="121" t="s">
@@ -20504,14 +20522,14 @@
         <v>309</v>
       </c>
     </row>
-    <row r="155" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="32"/>
       <c r="B155" s="33"/>
       <c r="C155" s="457" t="s">
         <v>67</v>
       </c>
       <c r="D155" s="542" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E155" s="528" t="s">
         <v>41</v>
@@ -20544,7 +20562,7 @@
       <c r="O155" s="82"/>
       <c r="P155" s="33"/>
       <c r="Q155" s="540" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="R155" s="457" t="s">
         <v>67</v>
@@ -20553,7 +20571,7 @@
         <v>46</v>
       </c>
       <c r="T155" s="542" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="U155" s="535" t="s">
         <v>69</v>
@@ -20563,7 +20581,7 @@
       </c>
       <c r="W155" s="33"/>
       <c r="X155" s="542" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="Y155" s="473" t="s">
         <v>99</v>
@@ -20572,7 +20590,7 @@
         <v>76</v>
       </c>
       <c r="AA155" s="540" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AB155" s="535" t="s">
         <v>108</v>
@@ -20585,7 +20603,7 @@
         <v>101</v>
       </c>
       <c r="AF155" s="491" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AG155" s="535" t="s">
         <v>108</v>
@@ -20600,7 +20618,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="156" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="53"/>
       <c r="B156" s="54"/>
       <c r="C156" s="122" t="s">
@@ -20696,7 +20714,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="157" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="90" t="s">
         <v>312</v>
       </c>
@@ -20794,7 +20812,7 @@
       </c>
       <c r="AJ157" s="99"/>
     </row>
-    <row r="158" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="32"/>
       <c r="B158" s="33"/>
       <c r="C158" s="150" t="s">
@@ -20890,7 +20908,7 @@
       </c>
       <c r="AJ158" s="82"/>
     </row>
-    <row r="159" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="32"/>
       <c r="B159" s="33"/>
       <c r="C159" s="474" t="s">
@@ -20903,10 +20921,10 @@
         <v>84</v>
       </c>
       <c r="F159" s="542" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G159" s="540" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H159" s="543" t="s">
         <v>49</v>
@@ -20932,7 +20950,7 @@
       </c>
       <c r="P159" s="33"/>
       <c r="Q159" s="542" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="R159" s="537" t="s">
         <v>84</v>
@@ -20970,7 +20988,7 @@
         <v>48</v>
       </c>
       <c r="AE159" s="542" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AF159" s="537" t="s">
         <v>108</v>
@@ -20979,14 +20997,14 @@
         <v>41</v>
       </c>
       <c r="AH159" s="540" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AI159" s="581" t="s">
         <v>149</v>
       </c>
       <c r="AJ159" s="82"/>
     </row>
-    <row r="160" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="53"/>
       <c r="B160" s="54"/>
       <c r="C160" s="167" t="s">
@@ -21082,7 +21100,7 @@
       </c>
       <c r="AJ160" s="86"/>
     </row>
-    <row r="161" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="74" t="s">
         <v>315</v>
       </c>
@@ -21188,7 +21206,7 @@
       </c>
       <c r="AJ161" s="78"/>
     </row>
-    <row r="162" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="32"/>
       <c r="B162" s="33"/>
       <c r="C162" s="276" t="s">
@@ -21292,7 +21310,7 @@
       </c>
       <c r="AJ162" s="82"/>
     </row>
-    <row r="163" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="32"/>
       <c r="B163" s="33"/>
       <c r="C163" s="540" t="s">
@@ -21326,22 +21344,22 @@
         <v>273</v>
       </c>
       <c r="M163" s="470" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N163" s="491" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O163" s="482" t="s">
         <v>141</v>
       </c>
-      <c r="P163" s="604" t="s">
+      <c r="P163" s="602" t="s">
         <v>122</v>
       </c>
       <c r="Q163" s="540" t="s">
         <v>122</v>
       </c>
       <c r="R163" s="513" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="S163" s="544" t="s">
         <v>41</v>
@@ -21350,12 +21368,12 @@
         <v>39</v>
       </c>
       <c r="U163" s="491" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="V163" s="547" t="s">
         <v>170</v>
       </c>
-      <c r="W163" s="604" t="s">
+      <c r="W163" s="602" t="s">
         <v>122</v>
       </c>
       <c r="X163" s="491" t="s">
@@ -21377,7 +21395,7 @@
         <v>99</v>
       </c>
       <c r="AD163" s="526" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AE163" s="544" t="s">
         <v>204</v>
@@ -21396,7 +21414,7 @@
       </c>
       <c r="AJ163" s="82"/>
     </row>
-    <row r="164" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="53"/>
       <c r="B164" s="54"/>
       <c r="C164" s="279" t="s">
@@ -21500,7 +21518,7 @@
       </c>
       <c r="AJ164" s="86"/>
     </row>
-    <row r="165" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="90" t="s">
         <v>321</v>
       </c>
@@ -21600,7 +21618,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="166" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="32"/>
       <c r="B166" s="320" t="s">
         <v>321</v>
@@ -21698,7 +21716,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="167" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="32"/>
       <c r="B167" s="546" t="s">
         <v>70</v>
@@ -21710,7 +21728,7 @@
         <v>122</v>
       </c>
       <c r="E167" s="470" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F167" s="460" t="s">
         <v>46</v>
@@ -21730,7 +21748,7 @@
         <v>36</v>
       </c>
       <c r="M167" s="491" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="N167" s="496" t="s">
         <v>170</v>
@@ -21740,7 +21758,7 @@
       </c>
       <c r="P167" s="33"/>
       <c r="Q167" s="491" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="R167" s="544" t="s">
         <v>150</v>
@@ -21757,11 +21775,11 @@
       <c r="V167" s="518" t="s">
         <v>83</v>
       </c>
-      <c r="W167" s="605" t="s">
+      <c r="W167" s="603" t="s">
         <v>99</v>
       </c>
       <c r="X167" s="513" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="Y167" s="517" t="s">
         <v>85</v>
@@ -21773,7 +21791,7 @@
         <v>85</v>
       </c>
       <c r="AB167" s="491" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AC167" s="82"/>
       <c r="AD167" s="33"/>
@@ -21796,7 +21814,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="168" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="53"/>
       <c r="B168" s="330" t="s">
         <v>264</v>
@@ -21894,7 +21912,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="169" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="74" t="s">
         <v>324</v>
       </c>
@@ -21996,7 +22014,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="170" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="32"/>
       <c r="B170" s="33"/>
       <c r="C170" s="148" t="s">
@@ -22072,7 +22090,7 @@
         <v>324</v>
       </c>
       <c r="AC170" s="82" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AD170" s="291" t="s">
         <v>324</v>
@@ -22096,11 +22114,11 @@
         <v>324</v>
       </c>
     </row>
-    <row r="171" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="32"/>
       <c r="B171" s="33"/>
       <c r="C171" s="470" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D171" s="544" t="s">
         <v>41</v>
@@ -22119,7 +22137,7 @@
       </c>
       <c r="I171" s="33"/>
       <c r="J171" s="530" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="K171" s="521" t="s">
         <v>172</v>
@@ -22136,13 +22154,13 @@
       <c r="O171" s="82"/>
       <c r="P171" s="33"/>
       <c r="Q171" s="513" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="R171" s="521" t="s">
         <v>85</v>
       </c>
       <c r="S171" s="530" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="T171" s="544" t="s">
         <v>70</v>
@@ -22166,13 +22184,13 @@
         <v>325</v>
       </c>
       <c r="AA171" s="513" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="AB171" s="521" t="s">
         <v>34</v>
       </c>
       <c r="AC171" s="82"/>
-      <c r="AD171" s="597" t="s">
+      <c r="AD171" s="595" t="s">
         <v>51</v>
       </c>
       <c r="AE171" s="530" t="s">
@@ -22194,7 +22212,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="172" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="53"/>
       <c r="B172" s="54"/>
       <c r="C172" s="165" t="s">
@@ -22292,7 +22310,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="173" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="90" t="s">
         <v>328</v>
       </c>
@@ -22392,7 +22410,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="174" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="32"/>
       <c r="B174" s="33"/>
       <c r="C174" s="287" t="s">
@@ -22490,7 +22508,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="175" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="32"/>
       <c r="B175" s="33"/>
       <c r="C175" s="513" t="s">
@@ -22503,7 +22521,7 @@
         <v>145</v>
       </c>
       <c r="F175" s="548" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G175" s="540" t="s">
         <v>122</v>
@@ -22535,7 +22553,7 @@
         <v>101</v>
       </c>
       <c r="R175" s="548" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="S175" s="513" t="s">
         <v>329</v>
@@ -22554,7 +22572,7 @@
         <v>46</v>
       </c>
       <c r="Y175" s="548" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="Z175" s="521" t="s">
         <v>85</v>
@@ -22588,7 +22606,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="176" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="53"/>
       <c r="B176" s="54"/>
       <c r="C176" s="304" t="s">
@@ -22686,7 +22704,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="177" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="74" t="s">
         <v>330</v>
       </c>
@@ -22786,7 +22804,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="178" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="32"/>
       <c r="B178" s="33"/>
       <c r="C178" s="146" t="s">
@@ -22884,7 +22902,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="179" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="32"/>
       <c r="B179" s="33"/>
       <c r="C179" s="468" t="s">
@@ -22903,14 +22921,14 @@
         <v>146</v>
       </c>
       <c r="H179" s="550" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I179" s="33"/>
       <c r="J179" s="548" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="K179" s="513" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="L179" s="510" t="s">
         <v>99</v>
@@ -22948,13 +22966,13 @@
         <v>141</v>
       </c>
       <c r="Y179" s="513" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="Z179" s="517" t="s">
         <v>39</v>
       </c>
       <c r="AA179" s="548" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="AB179" s="460" t="s">
         <v>101</v>
@@ -22964,7 +22982,7 @@
       </c>
       <c r="AD179" s="33"/>
       <c r="AE179" s="513" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="AF179" s="510" t="s">
         <v>140</v>
@@ -22973,7 +22991,7 @@
         <v>140</v>
       </c>
       <c r="AH179" s="548" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AI179" s="468" t="s">
         <v>141</v>
@@ -22982,7 +23000,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="180" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="53"/>
       <c r="B180" s="54"/>
       <c r="C180" s="163" t="s">
@@ -23080,7 +23098,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="181" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="412" t="s">
         <v>331</v>
       </c>
@@ -23180,7 +23198,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="182" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="32"/>
       <c r="B182" s="33"/>
       <c r="C182" s="318" t="s">
@@ -23278,7 +23296,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="183" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="32"/>
       <c r="B183" s="33"/>
       <c r="C183" s="517" t="s">
@@ -23294,10 +23312,10 @@
         <v>141</v>
       </c>
       <c r="G183" s="548" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H183" s="551" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I183" s="414" t="s">
         <v>145</v>
@@ -23309,13 +23327,13 @@
         <v>140</v>
       </c>
       <c r="L183" s="196" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="M183" s="123" t="s">
         <v>48</v>
       </c>
       <c r="N183" s="287" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O183" s="160" t="s">
         <v>172</v>
@@ -23328,13 +23346,13 @@
         <v>141</v>
       </c>
       <c r="S183" s="470" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="T183" s="517" t="s">
         <v>140</v>
       </c>
       <c r="U183" s="513" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="V183" s="82"/>
       <c r="W183" s="33"/>
@@ -23345,7 +23363,7 @@
         <v>170</v>
       </c>
       <c r="Z183" s="548" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="AA183" s="468" t="s">
         <v>141</v>
@@ -23376,7 +23394,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="184" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="416"/>
       <c r="B184" s="417"/>
       <c r="C184" s="418" t="s">

--- a/files/timetable/timetable_2022.4_2.xlsx
+++ b/files/timetable/timetable_2022.4_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF0DDBF-95B2-4D7C-8EC7-7C6EC79C161F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65DA009-A4E7-46D2-8CC2-05B8A56014DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5768" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5772" uniqueCount="455">
   <si>
     <t xml:space="preserve">
 КЕЛІСІЛДІ:
@@ -1119,10 +1119,6 @@
   </si>
   <si>
     <t>408А, 401</t>
-  </si>
-  <si>
-    <t>Физическая культура 
-ДО</t>
   </si>
   <si>
     <t>419А, 421</t>
@@ -5003,8 +4999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ184"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="P21" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="V42" sqref="V42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6044,7 +6040,7 @@
         <v>58</v>
       </c>
       <c r="AC12" s="86" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AD12" s="88" t="s">
         <v>63</v>
@@ -6073,7 +6069,7 @@
         <v>80</v>
       </c>
       <c r="B13" s="455" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>23</v>
@@ -6376,7 +6372,7 @@
         <v>50</v>
       </c>
       <c r="AG15" s="451" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AH15" s="456" t="s">
         <v>89</v>
@@ -6391,7 +6387,7 @@
     <row r="16" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="53"/>
       <c r="B16" s="54" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C16" s="57" t="s">
         <v>91</v>
@@ -6736,7 +6732,7 @@
         <v>50</v>
       </c>
       <c r="S19" s="448" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="T19" s="444" t="s">
         <v>37</v>
@@ -7114,7 +7110,7 @@
         <v>49</v>
       </c>
       <c r="Q23" s="444" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="R23" s="529" t="s">
         <v>68</v>
@@ -7163,7 +7159,7 @@
         <v>67</v>
       </c>
       <c r="AI23" s="440" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AJ23" s="82"/>
     </row>
@@ -7542,7 +7538,7 @@
         <v>67</v>
       </c>
       <c r="AG27" s="440" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AH27" s="442" t="s">
         <v>74</v>
@@ -7893,7 +7889,7 @@
         <v>86</v>
       </c>
       <c r="T31" s="444" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="U31" s="462" t="s">
         <v>78</v>
@@ -8321,7 +8317,7 @@
         <v>85</v>
       </c>
       <c r="AJ35" s="461" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="36" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
@@ -8692,7 +8688,7 @@
         <v>42</v>
       </c>
       <c r="AH39" s="444" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AI39" s="456" t="s">
         <v>46</v>
@@ -8967,7 +8963,7 @@
         <v>124</v>
       </c>
       <c r="V42" s="82" t="s">
-        <v>394</v>
+        <v>124</v>
       </c>
       <c r="W42" s="148" t="s">
         <v>124</v>
@@ -9074,7 +9070,9 @@
       <c r="U43" s="479" t="s">
         <v>45</v>
       </c>
-      <c r="V43" s="588"/>
+      <c r="V43" s="588">
+        <v>0</v>
+      </c>
       <c r="W43" s="470" t="s">
         <v>147</v>
       </c>
@@ -9180,7 +9178,9 @@
       <c r="U44" s="169" t="s">
         <v>157</v>
       </c>
-      <c r="V44" s="86"/>
+      <c r="V44" s="86" t="s">
+        <v>393</v>
+      </c>
       <c r="W44" s="165" t="s">
         <v>160</v>
       </c>
@@ -9249,7 +9249,9 @@
       <c r="H45" s="181" t="s">
         <v>136</v>
       </c>
-      <c r="I45" s="91"/>
+      <c r="I45" s="563" t="s">
+        <v>137</v>
+      </c>
       <c r="J45" s="152" t="s">
         <v>138</v>
       </c>
@@ -9332,7 +9334,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:36" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="32"/>
       <c r="B46" s="177" t="s">
         <v>162</v>
@@ -9356,7 +9358,7 @@
         <v>162</v>
       </c>
       <c r="I46" s="563" t="s">
-        <v>364</v>
+        <v>162</v>
       </c>
       <c r="J46" s="152" t="s">
         <v>162</v>
@@ -9463,7 +9465,9 @@
       <c r="H47" s="477" t="s">
         <v>147</v>
       </c>
-      <c r="I47" s="33"/>
+      <c r="I47" s="33">
+        <v>0</v>
+      </c>
       <c r="J47" s="479" t="s">
         <v>146</v>
       </c>
@@ -9489,13 +9493,13 @@
         <v>88</v>
       </c>
       <c r="R47" s="476" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="S47" s="468" t="s">
         <v>141</v>
       </c>
       <c r="T47" s="481" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="U47" s="479" t="s">
         <v>73</v>
@@ -9531,7 +9535,7 @@
         <v>99</v>
       </c>
       <c r="AF47" s="476" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG47" s="474" t="s">
         <v>88</v>
@@ -9569,7 +9573,9 @@
       <c r="H48" s="190" t="s">
         <v>160</v>
       </c>
-      <c r="I48" s="54"/>
+      <c r="I48" s="54" t="s">
+        <v>393</v>
+      </c>
       <c r="J48" s="169" t="s">
         <v>157</v>
       </c>
@@ -9885,7 +9891,7 @@
         <v>88</v>
       </c>
       <c r="N51" s="548" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O51" s="484" t="s">
         <v>88</v>
@@ -9898,7 +9904,7 @@
         <v>143</v>
       </c>
       <c r="S51" s="548" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="T51" s="473" t="s">
         <v>99</v>
@@ -9923,7 +9929,7 @@
         <v>172</v>
       </c>
       <c r="AB51" s="548" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AC51" s="561" t="s">
         <v>145</v>
@@ -10276,7 +10282,7 @@
         <v>141</v>
       </c>
       <c r="M55" s="469" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="N55" s="474" t="s">
         <v>88</v>
@@ -10323,10 +10329,10 @@
         <v>122</v>
       </c>
       <c r="AD55" s="626" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AE55" s="469" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF55" s="468" t="s">
         <v>141</v>
@@ -10661,7 +10667,7 @@
       </c>
       <c r="I59" s="33"/>
       <c r="J59" s="481" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K59" s="474" t="s">
         <v>88</v>
@@ -10677,7 +10683,7 @@
       </c>
       <c r="O59" s="82"/>
       <c r="P59" s="560" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Q59" s="480" t="s">
         <v>145</v>
@@ -10692,14 +10698,14 @@
         <v>143</v>
       </c>
       <c r="U59" s="548" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="V59" s="482" t="s">
         <v>48</v>
       </c>
       <c r="W59" s="33"/>
       <c r="X59" s="548" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Y59" s="475" t="s">
         <v>148</v>
@@ -10714,7 +10720,7 @@
         <v>172</v>
       </c>
       <c r="AC59" s="550" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AD59" s="33"/>
       <c r="AE59" s="481" t="s">
@@ -10724,7 +10730,7 @@
         <v>172</v>
       </c>
       <c r="AG59" s="548" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AH59" s="474" t="s">
         <v>88</v>
@@ -11130,7 +11136,7 @@
         <v>45</v>
       </c>
       <c r="AA63" s="500" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AB63" s="530" t="s">
         <v>146</v>
@@ -11148,16 +11154,16 @@
         <v>148</v>
       </c>
       <c r="AG63" s="500" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AH63" s="487" t="s">
         <v>49</v>
       </c>
       <c r="AI63" s="496" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AJ63" s="625" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="64" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
@@ -11525,7 +11531,7 @@
         <v>150</v>
       </c>
       <c r="N67" s="500" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O67" s="454" t="s">
         <v>98</v>
@@ -12025,7 +12031,7 @@
         <v>46</v>
       </c>
       <c r="AJ71" s="508" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="72" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
@@ -12382,7 +12388,7 @@
         <v>169</v>
       </c>
       <c r="O75" s="508" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P75" s="554" t="s">
         <v>69</v>
@@ -12419,10 +12425,10 @@
         <v>169</v>
       </c>
       <c r="AB75" s="500" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AC75" s="492" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AD75" s="33"/>
       <c r="AE75" s="495" t="s">
@@ -12811,7 +12817,7 @@
         <v>36</v>
       </c>
       <c r="V79" s="508" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="W79" s="33"/>
       <c r="X79" s="491" t="s">
@@ -12845,7 +12851,7 @@
         <v>69</v>
       </c>
       <c r="AH79" s="500" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AI79" s="453" t="s">
         <v>35</v>
@@ -13191,7 +13197,7 @@
         <v>72</v>
       </c>
       <c r="L83" s="470" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M83" s="474" t="s">
         <v>41</v>
@@ -13212,7 +13218,7 @@
         <v>41</v>
       </c>
       <c r="S83" s="500" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="T83" s="464" t="s">
         <v>69</v>
@@ -13594,7 +13600,7 @@
       </c>
       <c r="H87" s="82"/>
       <c r="I87" s="493" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J87" s="464" t="s">
         <v>70</v>
@@ -13612,7 +13618,7 @@
         <v>150</v>
       </c>
       <c r="O87" s="568" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P87" s="33"/>
       <c r="Q87" s="464" t="s">
@@ -13643,7 +13649,7 @@
         <v>169</v>
       </c>
       <c r="Z87" s="500" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AA87" s="495" t="s">
         <v>46</v>
@@ -14034,13 +14040,13 @@
         <v>150</v>
       </c>
       <c r="S91" s="540" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="T91" s="463" t="s">
         <v>169</v>
       </c>
       <c r="U91" s="500" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="V91" s="594" t="s">
         <v>150</v>
@@ -14080,7 +14086,7 @@
         <v>150</v>
       </c>
       <c r="AI91" s="500" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AJ91" s="82"/>
     </row>
@@ -14418,7 +14424,7 @@
         <v>150</v>
       </c>
       <c r="K95" s="500" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L95" s="491" t="s">
         <v>78</v>
@@ -14451,7 +14457,7 @@
         <v>41</v>
       </c>
       <c r="V95" s="568" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="W95" s="567" t="s">
         <v>194</v>
@@ -14871,7 +14877,7 @@
         <v>172</v>
       </c>
       <c r="T99" s="511" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="U99" s="521" t="s">
         <v>39</v>
@@ -14907,7 +14913,7 @@
         <v>145</v>
       </c>
       <c r="AF99" s="513" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG99" s="516" t="s">
         <v>43</v>
@@ -15281,13 +15287,13 @@
         <v>213</v>
       </c>
       <c r="L103" s="517" t="s">
+        <v>373</v>
+      </c>
+      <c r="M103" s="511" t="s">
         <v>374</v>
       </c>
-      <c r="M103" s="511" t="s">
+      <c r="N103" s="520" t="s">
         <v>375</v>
-      </c>
-      <c r="N103" s="520" t="s">
-        <v>376</v>
       </c>
       <c r="O103" s="573" t="s">
         <v>34</v>
@@ -15305,7 +15311,7 @@
         <v>335</v>
       </c>
       <c r="T103" s="517" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="U103" s="502" t="s">
         <v>84</v>
@@ -15332,7 +15338,7 @@
         <v>45</v>
       </c>
       <c r="AC103" s="575" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AD103" s="472" t="s">
         <v>35</v>
@@ -15736,7 +15742,7 @@
         <v>335</v>
       </c>
       <c r="V107" s="575" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="X107" s="511" t="s">
         <v>245</v>
@@ -16134,7 +16140,7 @@
         <v>169</v>
       </c>
       <c r="Q111" s="443" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="R111" s="479" t="s">
         <v>46</v>
@@ -16149,7 +16155,7 @@
         <v>229</v>
       </c>
       <c r="V111" s="598" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="W111" s="33"/>
       <c r="X111" s="475" t="s">
@@ -16165,7 +16171,7 @@
         <v>48</v>
       </c>
       <c r="AB111" s="443" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AC111" s="576" t="s">
         <v>39</v>
@@ -16174,7 +16180,7 @@
         <v>51</v>
       </c>
       <c r="AE111" s="517" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AF111" s="479" t="s">
         <v>149</v>
@@ -16189,7 +16195,7 @@
         <v>108</v>
       </c>
       <c r="AJ111" s="498" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="112" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
@@ -16529,7 +16535,7 @@
         <v>213</v>
       </c>
       <c r="K115" s="443" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L115" s="475" t="s">
         <v>34</v>
@@ -16538,7 +16544,7 @@
         <v>39</v>
       </c>
       <c r="N115" s="517" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O115" s="547" t="s">
         <v>47</v>
@@ -16556,7 +16562,7 @@
         <v>172</v>
       </c>
       <c r="U115" s="443" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="V115" s="503" t="s">
         <v>146</v>
@@ -16580,7 +16586,7 @@
         <v>89</v>
       </c>
       <c r="AC115" s="498" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AD115" s="620" t="s">
         <v>50</v>
@@ -16959,7 +16965,7 @@
       </c>
       <c r="O119" s="82"/>
       <c r="P119" s="478" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Q119" s="479" t="s">
         <v>47</v>
@@ -16971,7 +16977,7 @@
         <v>39</v>
       </c>
       <c r="T119" s="443" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="U119" s="541" t="s">
         <v>141</v>
@@ -16980,10 +16986,10 @@
         <v>246</v>
       </c>
       <c r="W119" s="613" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X119" s="443" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Y119" s="577" t="s">
         <v>39</v>
@@ -17013,7 +17019,7 @@
         <v>148</v>
       </c>
       <c r="AH119" s="443" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AI119" s="574" t="s">
         <v>145</v>
@@ -17372,7 +17378,7 @@
         <v>234</v>
       </c>
       <c r="N123" s="513" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O123" s="533" t="s">
         <v>76</v>
@@ -17390,7 +17396,7 @@
         <v>70</v>
       </c>
       <c r="T123" s="540" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="U123" s="458" t="s">
         <v>34</v>
@@ -17399,10 +17405,10 @@
         <v>51</v>
       </c>
       <c r="W123" s="485" t="s">
+        <v>431</v>
+      </c>
+      <c r="X123" s="513" t="s">
         <v>432</v>
-      </c>
-      <c r="X123" s="513" t="s">
-        <v>433</v>
       </c>
       <c r="Y123" s="528" t="s">
         <v>211</v>
@@ -17543,7 +17549,7 @@
         <v>283</v>
       </c>
       <c r="AJ124" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="125" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
@@ -17570,7 +17576,7 @@
         <v>19</v>
       </c>
       <c r="I125" s="455" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J125" s="354" t="s">
         <v>17</v>
@@ -17797,7 +17803,7 @@
         <v>287</v>
       </c>
       <c r="N127" s="540" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O127" s="547" t="s">
         <v>147</v>
@@ -17830,10 +17836,10 @@
         <v>149</v>
       </c>
       <c r="Y127" s="444" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Z127" s="540" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AA127" s="530" t="s">
         <v>51</v>
@@ -17888,7 +17894,7 @@
         <v>102</v>
       </c>
       <c r="I128" s="54" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J128" s="360" t="s">
         <v>282</v>
@@ -18214,7 +18220,7 @@
         <v>108</v>
       </c>
       <c r="K131" s="540" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L131" s="513" t="s">
         <v>287</v>
@@ -18238,7 +18244,7 @@
         <v>204</v>
       </c>
       <c r="S131" s="444" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="T131" s="527" t="s">
         <v>149</v>
@@ -18256,7 +18262,7 @@
         <v>108</v>
       </c>
       <c r="Y131" s="540" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Z131" s="457" t="s">
         <v>67</v>
@@ -18335,7 +18341,7 @@
         <v>103</v>
       </c>
       <c r="P132" s="54" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q132" s="382" t="s">
         <v>292</v>
@@ -18621,10 +18627,10 @@
         <v>108</v>
       </c>
       <c r="L135" s="540" t="s">
+        <v>379</v>
+      </c>
+      <c r="M135" s="444" t="s">
         <v>380</v>
-      </c>
-      <c r="M135" s="444" t="s">
-        <v>381</v>
       </c>
       <c r="N135" s="538" t="s">
         <v>101</v>
@@ -18665,7 +18671,7 @@
         <v>149</v>
       </c>
       <c r="AB135" s="540" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AC135" s="82"/>
       <c r="AD135" s="33"/>
@@ -18676,7 +18682,7 @@
         <v>89</v>
       </c>
       <c r="AG135" s="513" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AH135" s="535" t="s">
         <v>148</v>
@@ -19052,7 +19058,7 @@
         <v>149</v>
       </c>
       <c r="AC139" s="568" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AD139" s="33"/>
       <c r="AE139" s="537" t="s">
@@ -19068,7 +19074,7 @@
         <v>73</v>
       </c>
       <c r="AI139" s="540" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AJ139" s="533" t="s">
         <v>85</v>
@@ -19387,7 +19393,7 @@
       </c>
       <c r="I143" s="33"/>
       <c r="J143" s="513" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K143" s="487" t="s">
         <v>49</v>
@@ -19413,13 +19419,13 @@
         <v>211</v>
       </c>
       <c r="T143" s="513" t="s">
+        <v>410</v>
+      </c>
+      <c r="U143" s="540" t="s">
         <v>411</v>
       </c>
-      <c r="U143" s="540" t="s">
-        <v>412</v>
-      </c>
       <c r="V143" s="492" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="W143" s="33"/>
       <c r="X143" s="531" t="s">
@@ -19447,7 +19453,7 @@
         <v>99</v>
       </c>
       <c r="AF143" s="540" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AG143" s="538" t="s">
         <v>89</v>
@@ -19798,7 +19804,7 @@
         <v>149</v>
       </c>
       <c r="S147" s="513" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="T147" s="528" t="s">
         <v>211</v>
@@ -19828,7 +19834,7 @@
       <c r="AC147" s="82"/>
       <c r="AD147" s="33"/>
       <c r="AE147" s="540" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF147" s="487" t="s">
         <v>49</v>
@@ -20157,7 +20163,7 @@
       <c r="H151" s="82"/>
       <c r="I151" s="33"/>
       <c r="J151" s="540" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K151" s="474" t="s">
         <v>76</v>
@@ -20192,7 +20198,7 @@
       </c>
       <c r="V151" s="82"/>
       <c r="W151" s="526" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="X151" s="452" t="s">
         <v>38</v>
@@ -20222,10 +20228,10 @@
         <v>204</v>
       </c>
       <c r="AG151" s="540" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AH151" s="491" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AI151" s="513" t="s">
         <v>307</v>
@@ -20571,7 +20577,7 @@
         <v>46</v>
       </c>
       <c r="T155" s="542" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="U155" s="535" t="s">
         <v>69</v>
@@ -20581,7 +20587,7 @@
       </c>
       <c r="W155" s="33"/>
       <c r="X155" s="542" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="Y155" s="473" t="s">
         <v>99</v>
@@ -20590,7 +20596,7 @@
         <v>76</v>
       </c>
       <c r="AA155" s="540" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AB155" s="535" t="s">
         <v>108</v>
@@ -20603,7 +20609,7 @@
         <v>101</v>
       </c>
       <c r="AF155" s="491" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AG155" s="535" t="s">
         <v>108</v>
@@ -20950,7 +20956,7 @@
       </c>
       <c r="P159" s="33"/>
       <c r="Q159" s="542" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="R159" s="537" t="s">
         <v>84</v>
@@ -20988,7 +20994,7 @@
         <v>48</v>
       </c>
       <c r="AE159" s="542" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AF159" s="537" t="s">
         <v>108</v>
@@ -21344,10 +21350,10 @@
         <v>273</v>
       </c>
       <c r="M163" s="470" t="s">
+        <v>383</v>
+      </c>
+      <c r="N163" s="491" t="s">
         <v>384</v>
-      </c>
-      <c r="N163" s="491" t="s">
-        <v>385</v>
       </c>
       <c r="O163" s="482" t="s">
         <v>141</v>
@@ -21359,7 +21365,7 @@
         <v>122</v>
       </c>
       <c r="R163" s="513" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="S163" s="544" t="s">
         <v>41</v>
@@ -21368,7 +21374,7 @@
         <v>39</v>
       </c>
       <c r="U163" s="491" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="V163" s="547" t="s">
         <v>170</v>
@@ -21395,7 +21401,7 @@
         <v>99</v>
       </c>
       <c r="AD163" s="526" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AE163" s="544" t="s">
         <v>204</v>
@@ -21748,7 +21754,7 @@
         <v>36</v>
       </c>
       <c r="M167" s="491" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N167" s="496" t="s">
         <v>170</v>
@@ -21758,7 +21764,7 @@
       </c>
       <c r="P167" s="33"/>
       <c r="Q167" s="491" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="R167" s="544" t="s">
         <v>150</v>
@@ -21779,7 +21785,7 @@
         <v>99</v>
       </c>
       <c r="X167" s="513" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Y167" s="517" t="s">
         <v>85</v>
@@ -21791,7 +21797,7 @@
         <v>85</v>
       </c>
       <c r="AB167" s="491" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AC167" s="82"/>
       <c r="AD167" s="33"/>
@@ -22090,7 +22096,7 @@
         <v>324</v>
       </c>
       <c r="AC170" s="82" t="s">
-        <v>394</v>
+        <v>324</v>
       </c>
       <c r="AD170" s="291" t="s">
         <v>324</v>
@@ -22137,7 +22143,7 @@
       </c>
       <c r="I171" s="33"/>
       <c r="J171" s="530" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K171" s="521" t="s">
         <v>172</v>
@@ -22154,13 +22160,13 @@
       <c r="O171" s="82"/>
       <c r="P171" s="33"/>
       <c r="Q171" s="513" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="R171" s="521" t="s">
         <v>85</v>
       </c>
       <c r="S171" s="530" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T171" s="544" t="s">
         <v>70</v>
@@ -22184,12 +22190,14 @@
         <v>325</v>
       </c>
       <c r="AA171" s="513" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AB171" s="521" t="s">
         <v>34</v>
       </c>
-      <c r="AC171" s="82"/>
+      <c r="AC171" s="82">
+        <v>0</v>
+      </c>
       <c r="AD171" s="595" t="s">
         <v>51</v>
       </c>
@@ -22287,7 +22295,9 @@
       <c r="AB172" s="306" t="s">
         <v>254</v>
       </c>
-      <c r="AC172" s="86"/>
+      <c r="AC172" s="86" t="s">
+        <v>393</v>
+      </c>
       <c r="AD172" s="308" t="s">
         <v>253</v>
       </c>
@@ -22553,7 +22563,7 @@
         <v>101</v>
       </c>
       <c r="R175" s="548" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="S175" s="513" t="s">
         <v>329</v>
@@ -22572,7 +22582,7 @@
         <v>46</v>
       </c>
       <c r="Y175" s="548" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Z175" s="521" t="s">
         <v>85</v>
@@ -22925,10 +22935,10 @@
       </c>
       <c r="I179" s="33"/>
       <c r="J179" s="548" t="s">
+        <v>387</v>
+      </c>
+      <c r="K179" s="513" t="s">
         <v>388</v>
-      </c>
-      <c r="K179" s="513" t="s">
-        <v>389</v>
       </c>
       <c r="L179" s="510" t="s">
         <v>99</v>
@@ -22966,13 +22976,13 @@
         <v>141</v>
       </c>
       <c r="Y179" s="513" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Z179" s="517" t="s">
         <v>39</v>
       </c>
       <c r="AA179" s="548" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AB179" s="460" t="s">
         <v>101</v>
@@ -22982,7 +22992,7 @@
       </c>
       <c r="AD179" s="33"/>
       <c r="AE179" s="513" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AF179" s="510" t="s">
         <v>140</v>
@@ -22991,7 +23001,7 @@
         <v>140</v>
       </c>
       <c r="AH179" s="548" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AI179" s="468" t="s">
         <v>141</v>
@@ -23327,7 +23337,7 @@
         <v>140</v>
       </c>
       <c r="L183" s="196" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M183" s="123" t="s">
         <v>48</v>
@@ -23346,13 +23356,13 @@
         <v>141</v>
       </c>
       <c r="S183" s="470" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="T183" s="517" t="s">
         <v>140</v>
       </c>
       <c r="U183" s="513" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="V183" s="82"/>
       <c r="W183" s="33"/>
@@ -23363,7 +23373,7 @@
         <v>170</v>
       </c>
       <c r="Z183" s="548" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AA183" s="468" t="s">
         <v>141</v>
